--- a/medicine/Enfance/Olivier_Neuray/Olivier_Neuray.xlsx
+++ b/medicine/Enfance/Olivier_Neuray/Olivier_Neuray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Neuray, né  le 1er mai 1962 à Bruxelles (province de Brabant), est un auteur de bande dessinée et peintre belge francophone.
 </t>
@@ -511,18 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Neuray naît le 1er mai 1962 à Bruxelles, fils d'un père journaliste[1]. L'école l'ennuie, le dessin le passionne. Olivier Neuray passe deux ans à La Cambre pour étudier le graphisme, puis trois ans à l'Institut Saint-Luc pour se former en bande dessinée[2] et rejoint l'atelier Mazda pour un an[3].
-Ses premières planches paraissent dans le fanzine Synopsis dont un récit écrit par Yann[4], puis dans Spirou en août 1986[5].
-Avec le scénariste Yann Le Pennetier, ils réalisent la série Nuit Blanche[6], portant sur un officier des armées blanches dont le premier tome est prépublié dans Circus[7] (Cinq tomes et une intégrale[8] chez Glénat 1989-2009).
-Il adapte en bande dessinée les romans Le Colonel Chabert et David Copperfield pour Je bouquine[6]. En 1999, Neuray illustre sur un texte de Benoi Lacroix La Balade du sommeil, un livre pour enfants, aux éditions Mijade[5].
-Il collabore ensuite avec le scénariste Luc Brunschwig sur Makabi[9], un thriller mettant en scène Lloyd Singer, un agent du FBI atypique. Le premier tome paraît en 2002 dans la collection « Repérages » aux éditions Dupuis[10]. En 2011, la série est rebaptisée Lloyd Singer dans la collection « Grand angle » aux éditions Bamboo, les tomes 5 et 6 paraissent en février et juin de cette année. Le dessinateur Olivier Martin poursuit avec Luc Brunschwig pour le troisième cycle de cette série[5].
-Parallèlement, Olivier Neuray réalise aux éditions Glénat le début de la chronique d'une famille recomposée sur le mode de l'humour avec sa compagne Valérie Lemaire au scénario, histoire librement inspirée de leur expérience de parents. Ce sont Les Quasi[11], titre qui vient du terme utilisé en psychologie pour qualifier les frères et sœurs d'une famille recomposée et issus de parents différents qui sont donc des « quasi » frères et sœurs[5].
-En mai 2013 paraît aux éditions Casterman le premier tome d’un diptyque intitulé Les Cosaques d’Hitler[12]. Olivier Neuray et Valérie Lemaire s’appuient sur un fait historique peu connu de la Seconde Guerre mondiale — la défection au profit de l’Allemagne nazie d’une partie des troupes cosaques et russes, ennemis de Staline et du système soviétique — pour inaugurer une nouvelle série sur fond d’histoire contemporaine[5].
-En juin 2015, début du triptyque Les Cinq de Cambridge toujours avec Valérie Lemaire chez Casterman (2015-2018)[13]. Après, il délaisse la bande dessinée pour la gravure et la peinture, une exposition de ses œuvres se tient à la galerie « Partage », à Bruxelles, du 14 octobre au 28 novembre 2021[14]. Depuis, il y est artiste résident[1].
-Parentèle
-Il est l'arrière-petit-fils du journaliste Fernand Neuray[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Neuray naît le 1er mai 1962 à Bruxelles, fils d'un père journaliste. L'école l'ennuie, le dessin le passionne. Olivier Neuray passe deux ans à La Cambre pour étudier le graphisme, puis trois ans à l'Institut Saint-Luc pour se former en bande dessinée et rejoint l'atelier Mazda pour un an.
+Ses premières planches paraissent dans le fanzine Synopsis dont un récit écrit par Yann, puis dans Spirou en août 1986.
+Avec le scénariste Yann Le Pennetier, ils réalisent la série Nuit Blanche, portant sur un officier des armées blanches dont le premier tome est prépublié dans Circus (Cinq tomes et une intégrale chez Glénat 1989-2009).
+Il adapte en bande dessinée les romans Le Colonel Chabert et David Copperfield pour Je bouquine. En 1999, Neuray illustre sur un texte de Benoi Lacroix La Balade du sommeil, un livre pour enfants, aux éditions Mijade.
+Il collabore ensuite avec le scénariste Luc Brunschwig sur Makabi, un thriller mettant en scène Lloyd Singer, un agent du FBI atypique. Le premier tome paraît en 2002 dans la collection « Repérages » aux éditions Dupuis. En 2011, la série est rebaptisée Lloyd Singer dans la collection « Grand angle » aux éditions Bamboo, les tomes 5 et 6 paraissent en février et juin de cette année. Le dessinateur Olivier Martin poursuit avec Luc Brunschwig pour le troisième cycle de cette série.
+Parallèlement, Olivier Neuray réalise aux éditions Glénat le début de la chronique d'une famille recomposée sur le mode de l'humour avec sa compagne Valérie Lemaire au scénario, histoire librement inspirée de leur expérience de parents. Ce sont Les Quasi, titre qui vient du terme utilisé en psychologie pour qualifier les frères et sœurs d'une famille recomposée et issus de parents différents qui sont donc des « quasi » frères et sœurs.
+En mai 2013 paraît aux éditions Casterman le premier tome d’un diptyque intitulé Les Cosaques d’Hitler. Olivier Neuray et Valérie Lemaire s’appuient sur un fait historique peu connu de la Seconde Guerre mondiale — la défection au profit de l’Allemagne nazie d’une partie des troupes cosaques et russes, ennemis de Staline et du système soviétique — pour inaugurer une nouvelle série sur fond d’histoire contemporaine.
+En juin 2015, début du triptyque Les Cinq de Cambridge toujours avec Valérie Lemaire chez Casterman (2015-2018). Après, il délaisse la bande dessinée pour la gravure et la peinture, une exposition de ses œuvres se tient à la galerie « Partage », à Bruxelles, du 14 octobre au 28 novembre 2021. Depuis, il y est artiste résident.
 </t>
         </is>
       </c>
@@ -548,17 +560,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parentèle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'arrière-petit-fils du journaliste Fernand Neuray.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olivier_Neuray</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Neuray</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Albums de bande dessinée
-Illustration livres jeunesse
-Benoi Lacroix, La Ballade du sommeil[32], Namur, Mijade, coll. « Les petits Mijade », 1999 (ISBN 2-87142-175-7, présentation en ligne)
-Revues
-Je bouquine
-En 1996 : Publication dans Je bouquine no 148  (ISBN 9782747012669).</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustration livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Benoi Lacroix, La Ballade du sommeil, Namur, Mijade, coll. « Les petits Mijade », 1999 (ISBN 2-87142-175-7, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olivier_Neuray</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Neuray</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Je bouquine</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1996 : Publication dans Je bouquine no 148  (ISBN 9782747012669).</t>
         </is>
       </c>
     </row>
